--- a/Caso_Practico_Analisis_Ventas 3.xlsx
+++ b/Caso_Practico_Analisis_Ventas 3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\velezamo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e9c4b8569225e56c/Analisis-Ciencia de datos/Pruebas/Provident/caso-practico-Provident/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD58F02-9280-4DAC-A700-58C73687349D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicaciones" sheetId="2" r:id="rId1"/>
@@ -602,56 +602,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF179D9E-34ED-495D-B5E4-1A43E89DBFEF}">
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView zoomScale="223" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="100" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -665,11 +665,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D217"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -683,7 +685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -697,7 +699,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -711,7 +713,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -725,7 +727,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -739,7 +741,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -753,7 +755,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -767,7 +769,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -781,7 +783,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -795,7 +797,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -809,7 +811,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -823,7 +825,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -837,7 +839,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -851,7 +853,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -865,7 +867,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -879,7 +881,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -893,7 +895,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -907,7 +909,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -921,7 +923,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -935,7 +937,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -949,7 +951,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -963,7 +965,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -977,7 +979,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -991,7 +993,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -1005,7 +1007,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1019,7 +1021,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1033,7 +1035,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1047,7 +1049,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1061,7 +1063,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -1075,7 +1077,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1089,7 +1091,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1103,7 +1105,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1117,7 +1119,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1131,7 +1133,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1145,7 +1147,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -1159,7 +1161,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1173,7 +1175,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -1187,7 +1189,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -1201,7 +1203,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -1215,7 +1217,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -1229,7 +1231,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -1243,7 +1245,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -1257,7 +1259,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -1271,7 +1273,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -1285,7 +1287,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -1299,7 +1301,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -1313,7 +1315,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -1327,7 +1329,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -1341,7 +1343,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>9</v>
       </c>
@@ -1355,7 +1357,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -1369,7 +1371,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -1383,7 +1385,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -1397,7 +1399,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -1411,7 +1413,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -1425,7 +1427,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -1439,7 +1441,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -1453,7 +1455,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>10</v>
       </c>
@@ -1467,7 +1469,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -1481,7 +1483,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -1495,7 +1497,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -1509,7 +1511,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -1523,7 +1525,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>10</v>
       </c>
@@ -1537,7 +1539,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -1551,7 +1553,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -1565,7 +1567,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>11</v>
       </c>
@@ -1579,7 +1581,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>11</v>
       </c>
@@ -1593,7 +1595,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>11</v>
       </c>
@@ -1607,7 +1609,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>11</v>
       </c>
@@ -1621,7 +1623,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -1635,7 +1637,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>11</v>
       </c>
@@ -1649,7 +1651,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -1663,7 +1665,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>11</v>
       </c>
@@ -1677,7 +1679,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>11</v>
       </c>
@@ -1691,7 +1693,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>12</v>
       </c>
@@ -1705,7 +1707,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>12</v>
       </c>
@@ -1719,7 +1721,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>12</v>
       </c>
@@ -1733,7 +1735,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>12</v>
       </c>
@@ -1747,7 +1749,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>12</v>
       </c>
@@ -1761,7 +1763,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>12</v>
       </c>
@@ -1775,7 +1777,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>12</v>
       </c>
@@ -1789,7 +1791,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>12</v>
       </c>
@@ -1803,7 +1805,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>12</v>
       </c>
@@ -1817,7 +1819,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>13</v>
       </c>
@@ -1831,7 +1833,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>13</v>
       </c>
@@ -1845,7 +1847,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>13</v>
       </c>
@@ -1859,7 +1861,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>13</v>
       </c>
@@ -1873,7 +1875,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>13</v>
       </c>
@@ -1887,7 +1889,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>13</v>
       </c>
@@ -1901,7 +1903,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>13</v>
       </c>
@@ -1915,7 +1917,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>13</v>
       </c>
@@ -1929,7 +1931,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>13</v>
       </c>
@@ -1943,7 +1945,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>14</v>
       </c>
@@ -1957,7 +1959,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>14</v>
       </c>
@@ -1971,7 +1973,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>14</v>
       </c>
@@ -1985,7 +1987,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>14</v>
       </c>
@@ -1999,7 +2001,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>14</v>
       </c>
@@ -2013,7 +2015,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>14</v>
       </c>
@@ -2027,7 +2029,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>14</v>
       </c>
@@ -2041,7 +2043,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>14</v>
       </c>
@@ -2055,7 +2057,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>14</v>
       </c>
@@ -2069,7 +2071,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>15</v>
       </c>
@@ -2083,7 +2085,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>15</v>
       </c>
@@ -2097,7 +2099,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>15</v>
       </c>
@@ -2111,7 +2113,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>15</v>
       </c>
@@ -2125,7 +2127,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>15</v>
       </c>
@@ -2139,7 +2141,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>15</v>
       </c>
@@ -2153,7 +2155,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>15</v>
       </c>
@@ -2167,7 +2169,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>15</v>
       </c>
@@ -2181,7 +2183,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>15</v>
       </c>
@@ -2195,7 +2197,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>16</v>
       </c>
@@ -2209,7 +2211,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>16</v>
       </c>
@@ -2223,7 +2225,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>16</v>
       </c>
@@ -2237,7 +2239,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>16</v>
       </c>
@@ -2251,7 +2253,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>16</v>
       </c>
@@ -2265,7 +2267,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>16</v>
       </c>
@@ -2279,7 +2281,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>16</v>
       </c>
@@ -2293,7 +2295,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>16</v>
       </c>
@@ -2307,7 +2309,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>16</v>
       </c>
@@ -2321,7 +2323,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>17</v>
       </c>
@@ -2335,7 +2337,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>17</v>
       </c>
@@ -2349,7 +2351,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>17</v>
       </c>
@@ -2363,7 +2365,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>17</v>
       </c>
@@ -2377,7 +2379,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>17</v>
       </c>
@@ -2391,7 +2393,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>17</v>
       </c>
@@ -2405,7 +2407,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>17</v>
       </c>
@@ -2419,7 +2421,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>17</v>
       </c>
@@ -2433,7 +2435,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>17</v>
       </c>
@@ -2447,7 +2449,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>18</v>
       </c>
@@ -2461,7 +2463,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>18</v>
       </c>
@@ -2475,7 +2477,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>18</v>
       </c>
@@ -2489,7 +2491,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>18</v>
       </c>
@@ -2503,7 +2505,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>18</v>
       </c>
@@ -2517,7 +2519,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>18</v>
       </c>
@@ -2531,7 +2533,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>18</v>
       </c>
@@ -2545,7 +2547,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>18</v>
       </c>
@@ -2559,7 +2561,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>18</v>
       </c>
@@ -2573,7 +2575,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>19</v>
       </c>
@@ -2587,7 +2589,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>19</v>
       </c>
@@ -2601,7 +2603,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>19</v>
       </c>
@@ -2615,7 +2617,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>19</v>
       </c>
@@ -2629,7 +2631,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>19</v>
       </c>
@@ -2643,7 +2645,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>19</v>
       </c>
@@ -2657,7 +2659,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>19</v>
       </c>
@@ -2671,7 +2673,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>19</v>
       </c>
@@ -2685,7 +2687,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>19</v>
       </c>
@@ -2699,7 +2701,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>20</v>
       </c>
@@ -2713,7 +2715,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>20</v>
       </c>
@@ -2727,7 +2729,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>20</v>
       </c>
@@ -2741,7 +2743,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>20</v>
       </c>
@@ -2755,7 +2757,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>20</v>
       </c>
@@ -2769,7 +2771,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>20</v>
       </c>
@@ -2783,7 +2785,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>20</v>
       </c>
@@ -2797,7 +2799,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>20</v>
       </c>
@@ -2811,7 +2813,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>20</v>
       </c>
@@ -2825,7 +2827,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>21</v>
       </c>
@@ -2839,7 +2841,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>21</v>
       </c>
@@ -2853,7 +2855,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>21</v>
       </c>
@@ -2867,7 +2869,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>21</v>
       </c>
@@ -2881,7 +2883,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>21</v>
       </c>
@@ -2895,7 +2897,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>21</v>
       </c>
@@ -2909,7 +2911,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>21</v>
       </c>
@@ -2923,7 +2925,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>21</v>
       </c>
@@ -2937,7 +2939,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>21</v>
       </c>
@@ -2951,7 +2953,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>22</v>
       </c>
@@ -2965,7 +2967,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>22</v>
       </c>
@@ -2979,7 +2981,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>22</v>
       </c>
@@ -2993,7 +2995,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>22</v>
       </c>
@@ -3007,7 +3009,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>22</v>
       </c>
@@ -3021,7 +3023,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>22</v>
       </c>
@@ -3035,7 +3037,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>22</v>
       </c>
@@ -3049,7 +3051,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>22</v>
       </c>
@@ -3063,7 +3065,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>22</v>
       </c>
@@ -3077,7 +3079,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>23</v>
       </c>
@@ -3091,7 +3093,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>23</v>
       </c>
@@ -3105,7 +3107,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>23</v>
       </c>
@@ -3119,7 +3121,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>23</v>
       </c>
@@ -3133,7 +3135,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>23</v>
       </c>
@@ -3147,7 +3149,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>23</v>
       </c>
@@ -3161,7 +3163,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>23</v>
       </c>
@@ -3175,7 +3177,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>23</v>
       </c>
@@ -3189,7 +3191,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>23</v>
       </c>
@@ -3203,7 +3205,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>24</v>
       </c>
@@ -3217,7 +3219,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>24</v>
       </c>
@@ -3231,7 +3233,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>24</v>
       </c>
@@ -3245,7 +3247,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>24</v>
       </c>
@@ -3259,7 +3261,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>24</v>
       </c>
@@ -3273,7 +3275,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>24</v>
       </c>
@@ -3287,7 +3289,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>24</v>
       </c>
@@ -3301,7 +3303,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>24</v>
       </c>
@@ -3315,7 +3317,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>24</v>
       </c>
@@ -3329,7 +3331,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>25</v>
       </c>
@@ -3343,7 +3345,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>25</v>
       </c>
@@ -3357,7 +3359,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>25</v>
       </c>
@@ -3371,7 +3373,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>25</v>
       </c>
@@ -3385,7 +3387,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>25</v>
       </c>
@@ -3399,7 +3401,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>25</v>
       </c>
@@ -3413,7 +3415,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>25</v>
       </c>
@@ -3427,7 +3429,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>25</v>
       </c>
@@ -3441,7 +3443,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>25</v>
       </c>
@@ -3455,7 +3457,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>26</v>
       </c>
@@ -3469,7 +3471,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>26</v>
       </c>
@@ -3483,7 +3485,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>26</v>
       </c>
@@ -3497,7 +3499,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>26</v>
       </c>
@@ -3511,7 +3513,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>26</v>
       </c>
@@ -3525,7 +3527,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>26</v>
       </c>
@@ -3539,7 +3541,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>26</v>
       </c>
@@ -3553,7 +3555,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>26</v>
       </c>
@@ -3567,7 +3569,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>26</v>
       </c>
@@ -3581,7 +3583,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>27</v>
       </c>
@@ -3595,7 +3597,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>27</v>
       </c>
@@ -3609,7 +3611,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>27</v>
       </c>
@@ -3623,7 +3625,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>27</v>
       </c>
@@ -3637,7 +3639,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>27</v>
       </c>
@@ -3651,7 +3653,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>27</v>
       </c>
@@ -3665,7 +3667,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>27</v>
       </c>
@@ -3679,7 +3681,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>27</v>
       </c>
@@ -3693,7 +3695,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>27</v>
       </c>
